--- a/source/media/учёт.xlsx
+++ b/source/media/учёт.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K7"/>
+  <dimension ref="A1:L2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -474,34 +474,39 @@
       </c>
       <c r="K1" t="inlineStr">
         <is>
-          <t>Дата Учёта</t>
+          <t>Дата учёта</t>
+        </is>
+      </c>
+      <c r="L1" t="inlineStr">
+        <is>
+          <t>Дата последнего изменения</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>awsd</t>
+          <t>ВСОШ по математике</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>sda</t>
+          <t>Берчетов Мирон Андреевич</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>asd</t>
+          <t>Вера Георгиевна</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Литературное чтение</t>
+          <t>Математика</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>1в</t>
+          <t>9в</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
@@ -516,295 +521,23 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>1 место</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>ФЫВФЫВСФЫ</t>
-        </is>
-      </c>
+          <t>Участник</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr">
         <is>
-          <t>01.12.2023</t>
+          <t>03.10.2022</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>17.01.2023</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>qawd</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>das</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>asd</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>ОРКСЭ</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>6а</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Спорт</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>Школьный</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>Победитель</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>фывс</t>
-        </is>
-      </c>
-      <c r="J3" t="inlineStr">
-        <is>
-          <t>01.12.2023</t>
-        </is>
-      </c>
-      <c r="K3" t="inlineStr">
-        <is>
-          <t>17.01.2023</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>ffdgfgdfg</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>dfgdfgdfg</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>dfgdfg</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>Литературное чтение</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>3а</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Спорт</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>Школьный</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>Призёр</t>
-        </is>
-      </c>
-      <c r="I4" t="inlineStr"/>
-      <c r="J4" t="inlineStr">
-        <is>
-          <t>01.12.2023</t>
-        </is>
-      </c>
-      <c r="K4" t="inlineStr">
-        <is>
-          <t>17.01.2023</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>lf</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>мирончик</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>sdfsdfsdf</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>Литературное чтение</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>1-11</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Социальное</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>Районный</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>2 место</t>
-        </is>
-      </c>
-      <c r="I5" t="inlineStr"/>
-      <c r="J5" t="inlineStr">
-        <is>
-          <t>01.12.2023</t>
-        </is>
-      </c>
-      <c r="K5" t="inlineStr">
-        <is>
-          <t>17.01.2023</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>мирончик</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>asdasdasdasd</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>Русский язык</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>1-11</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Образование</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>Районный</t>
-        </is>
-      </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>2 место</t>
-        </is>
-      </c>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="J6" t="inlineStr">
-        <is>
-          <t>01.12.2023</t>
-        </is>
-      </c>
-      <c r="K6" t="inlineStr">
-        <is>
-          <t>17.01.2023</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>effd</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>dfdfssdf</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>sdfsdf</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>Русский язык</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>11а</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>Спорт</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>Школьный</t>
-        </is>
-      </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>Лауреат</t>
-        </is>
-      </c>
-      <c r="I7" t="inlineStr"/>
-      <c r="J7" t="inlineStr">
-        <is>
-          <t>18.01.2023</t>
-        </is>
-      </c>
-      <c r="K7" t="inlineStr">
-        <is>
-          <t>18.01.2023</t>
+          <t>19.01.2023</t>
+        </is>
+      </c>
+      <c r="L2" t="inlineStr">
+        <is>
+          <t>19.01.2023</t>
         </is>
       </c>
     </row>

--- a/source/media/учёт.xlsx
+++ b/source/media/учёт.xlsx
@@ -486,22 +486,22 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>ВСОШ по математике</t>
+          <t>ВСОШ по химии</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Берчетов Мирон Андреевич</t>
+          <t>Кислин Игнат</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Вера Георгиевна</t>
+          <t>Химичка</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Математика</t>
+          <t>Химия</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -516,28 +516,28 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Школьный</t>
+          <t>Городской</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>Участник</t>
+          <t>Победитель</t>
         </is>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr">
         <is>
-          <t>03.10.2022</t>
+          <t>18.11.2022</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>19.01.2023</t>
+          <t>20.01.2023</t>
         </is>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>19.01.2023</t>
+          <t>20.01.2023</t>
         </is>
       </c>
     </row>
